--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-experiment-filtered-properties.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-experiment-filtered-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t xml:space="preserve">EXPERIMENT</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">/DEFAULT/DEFAULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,18 +247,17 @@
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -277,7 +279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -291,7 +293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -304,9 +306,10 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -320,7 +323,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>0</v>
@@ -334,7 +336,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>15</v>
       </c>
@@ -354,6 +356,7 @@
       <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,8 +369,8 @@
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8" t="b">
-        <v>0</v>
+      <c r="D12" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
